--- a/Relatorio_Completo_Residencial_2025_09.xlsx
+++ b/Relatorio_Completo_Residencial_2025_09.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexandregarcia/Library/Mobile Documents/com~apple~CloudDocs/Dashboards/dashboard-ivv/APN IVV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E01766-80FB-4841-9C8E-2F120DD045B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD137469-96CD-9340-B0C5-5F6BCB080801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1960" uniqueCount="1123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1955" uniqueCount="1122">
   <si>
     <t>Relatório - Dashboard IVV (Residencial)</t>
   </si>
@@ -3436,9 +3436,6 @@
   </si>
   <si>
     <t>4T</t>
-  </si>
-  <si>
-    <t>* Ano incompleto (dados até Set/2025)</t>
   </si>
 </sst>
 </file>
@@ -5552,7 +5549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -7634,10 +7631,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7747,18 +7744,10 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B8" t="s">
-        <v>76</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
-    <ignoredError sqref="A2:F4 A6:F8 B5:E5 A1:E1" numberStoredAsText="1"/>
+    <ignoredError sqref="A2:F4 A6:F7 B5:E5 A1:E1 C8:F8" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -10154,10 +10143,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10218,8 +10207,8 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>64</v>
+      <c r="A6">
+        <v>2025</v>
       </c>
       <c r="B6" t="s">
         <v>43</v>
@@ -10236,18 +10225,10 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1122</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:C8 A9 C9" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:C5 C9 A7:C8 B6:C6" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
